--- a/Correlation/Data/top20_genus.xlsx
+++ b/Correlation/Data/top20_genus.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T5/IECOH_SGP/Correlation_new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangxi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6A78BA-5D99-3141-8328-B9FF4CBAA614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE978CBD-60A8-F44A-8665-7F76B96D3693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21200" xr2:uid="{C0D779EF-F13F-534D-AB42-47A5EC477A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="top20" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>k__Bacteria;p__Saccharibacteria_(TM7);c__Saccharibacteria_(TM7)_[C-1];o__Saccharibacteria_(TM7)_[O-1];f__Saccharibacteria_(TM7)_[F-2];g__Saccharibacteria_(TM7)_[G-5]</t>
   </si>
@@ -877,156 +875,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7241FB4-9444-FB43-A460-9AEB184E15A8}">
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EA6D51-D9B6-B748-AD6A-B1D27E7E9940}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>